--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMAssignments.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMAssignments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="90">
   <si>
     <t>Worker Assignment</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>Non Worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Legal Employer [LOV] </t>
+  </si>
+  <si>
+    <t>USA HSCIENCE Corp</t>
+  </si>
+  <si>
+    <t>Some XX Reason</t>
+  </si>
+  <si>
+    <t>Hire to fill vacant positionHire to fill vacant positionHire to fill vacant positionHire to fill vacant positionHire to fill vacant positionHire to fill vacant positionHire to fill vacant position</t>
+  </si>
+  <si>
+    <t>#, $, &amp;, *</t>
   </si>
 </sst>
 </file>
@@ -1008,15 +1023,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="23.25">
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1068,9 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1083,8 +1102,9 @@
       <c r="Y2" s="57"/>
       <c r="Z2" s="58"/>
       <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="1:27" s="21" customFormat="1" ht="63.75">
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" s="21" customFormat="1" ht="63.75">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1166,8 +1186,11 @@
       <c r="AA3" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="25" customFormat="1">
+      <c r="AB3" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="25" customFormat="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1197,8 +1220,9 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:27" ht="191.25">
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" ht="191.25">
       <c r="A5" s="26" t="s">
         <v>33</v>
       </c>
@@ -1246,8 +1270,9 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
       <c r="AA5" s="35"/>
-    </row>
-    <row r="6" spans="1:27" s="40" customFormat="1" ht="24">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:28" s="40" customFormat="1" ht="24">
       <c r="A6" s="36" t="s">
         <v>43</v>
       </c>
@@ -1329,8 +1354,11 @@
       <c r="AA6" s="38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="52" customFormat="1" ht="36">
+      <c r="AB6" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="52" customFormat="1" ht="48">
       <c r="A7" s="41">
         <v>89076</v>
       </c>
@@ -1350,10 +1378,10 @@
         <v>69</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="I7" s="46">
         <v>7005</v>
@@ -1396,12 +1424,19 @@
       <c r="W7" s="49">
         <v>1</v>
       </c>
-      <c r="X7" s="51"/>
+      <c r="X7" s="43">
+        <v>40350</v>
+      </c>
       <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
+      <c r="Z7" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA7" s="42"/>
-    </row>
-    <row r="8" spans="1:27" s="52" customFormat="1" ht="36">
+      <c r="AB7" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="52" customFormat="1" ht="48">
       <c r="A8" s="41">
         <v>89076</v>
       </c>
@@ -1421,10 +1456,10 @@
         <v>78</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="I8" s="46">
         <v>7006</v>
@@ -1467,12 +1502,19 @@
       <c r="W8" s="49">
         <v>1</v>
       </c>
-      <c r="X8" s="51"/>
+      <c r="X8" s="44">
+        <v>40909</v>
+      </c>
       <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
+      <c r="Z8" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA8" s="42"/>
-    </row>
-    <row r="9" spans="1:27" s="52" customFormat="1" ht="36">
+      <c r="AB8" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="52" customFormat="1" ht="36">
       <c r="A9" s="41">
         <v>89076</v>
       </c>
@@ -1536,12 +1578,19 @@
       <c r="W9" s="49">
         <v>1</v>
       </c>
-      <c r="X9" s="51"/>
+      <c r="X9" s="43">
+        <v>41640</v>
+      </c>
       <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
+      <c r="Z9" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA9" s="42"/>
-    </row>
-    <row r="10" spans="1:27" ht="36.75">
+      <c r="AB9" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="36.75">
       <c r="A10" s="41">
         <v>89077</v>
       </c>
@@ -1607,12 +1656,19 @@
       <c r="W10" s="49">
         <v>1</v>
       </c>
-      <c r="X10" s="51"/>
+      <c r="X10" s="43">
+        <v>40350</v>
+      </c>
       <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
+      <c r="Z10" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" ht="36.75">
+      <c r="AB10" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="36.75">
       <c r="A11" s="41">
         <v>89077</v>
       </c>
@@ -1678,12 +1734,19 @@
       <c r="W11" s="49">
         <v>1</v>
       </c>
-      <c r="X11" s="51"/>
+      <c r="X11" s="44">
+        <v>40909</v>
+      </c>
       <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
+      <c r="Z11" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA11" s="42"/>
-    </row>
-    <row r="12" spans="1:27" ht="36.75">
+      <c r="AB11" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="36.75">
       <c r="A12" s="41">
         <v>89077</v>
       </c>
@@ -1747,12 +1810,19 @@
       <c r="W12" s="49">
         <v>1</v>
       </c>
-      <c r="X12" s="51"/>
+      <c r="X12" s="43">
+        <v>41640</v>
+      </c>
       <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
+      <c r="Z12" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA12" s="42"/>
-    </row>
-    <row r="13" spans="1:27" ht="36.75">
+      <c r="AB12" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="36.75">
       <c r="A13" s="41">
         <v>89078</v>
       </c>
@@ -1818,12 +1888,19 @@
       <c r="W13" s="49">
         <v>1</v>
       </c>
-      <c r="X13" s="51"/>
+      <c r="X13" s="43">
+        <v>40350</v>
+      </c>
       <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
+      <c r="Z13" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA13" s="42"/>
-    </row>
-    <row r="14" spans="1:27" ht="36.75">
+      <c r="AB13" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="36.75">
       <c r="A14" s="41">
         <v>89078</v>
       </c>
@@ -1889,12 +1966,19 @@
       <c r="W14" s="49">
         <v>1</v>
       </c>
-      <c r="X14" s="51"/>
+      <c r="X14" s="44">
+        <v>40909</v>
+      </c>
       <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
+      <c r="Z14" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" ht="36.75">
+      <c r="AB14" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="36.75">
       <c r="A15" s="41">
         <v>89078</v>
       </c>
@@ -1958,12 +2042,19 @@
       <c r="W15" s="49">
         <v>1</v>
       </c>
-      <c r="X15" s="51"/>
+      <c r="X15" s="43">
+        <v>41640</v>
+      </c>
       <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
+      <c r="Z15" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" ht="36.75">
+      <c r="AB15" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="36.75">
       <c r="A16" s="41">
         <v>89079</v>
       </c>
@@ -2029,13 +2120,22 @@
       <c r="W16" s="49">
         <v>1</v>
       </c>
-      <c r="X16" s="51"/>
+      <c r="X16" s="43">
+        <v>40350</v>
+      </c>
       <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
+      <c r="Z16" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA16" s="42"/>
-    </row>
-    <row r="17" spans="1:27" ht="36.75">
-      <c r="A17" s="41"/>
+      <c r="AB16" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="36.75">
+      <c r="A17" s="41">
+        <v>89079</v>
+      </c>
       <c r="B17" s="42">
         <v>2</v>
       </c>
@@ -2098,12 +2198,19 @@
       <c r="W17" s="49">
         <v>1</v>
       </c>
-      <c r="X17" s="51"/>
+      <c r="X17" s="44">
+        <v>40909</v>
+      </c>
       <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
+      <c r="Z17" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA17" s="42"/>
-    </row>
-    <row r="18" spans="1:27" ht="36.75">
+      <c r="AB17" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="36.75">
       <c r="A18" s="41">
         <v>89079</v>
       </c>
@@ -2167,10 +2274,7435 @@
       <c r="W18" s="49">
         <v>1</v>
       </c>
-      <c r="X18" s="51"/>
+      <c r="X18" s="43">
+        <v>41640</v>
+      </c>
       <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
+      <c r="Z18" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="AA18" s="42"/>
+      <c r="AB18" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="36.75">
+      <c r="A19" s="41">
+        <v>89080</v>
+      </c>
+      <c r="B19" s="42">
+        <v>1</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E19" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="47">
+        <v>801</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="49">
+        <v>40</v>
+      </c>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" s="49">
+        <v>1</v>
+      </c>
+      <c r="W19" s="49">
+        <v>1</v>
+      </c>
+      <c r="X19" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="36.75">
+      <c r="A20" s="41">
+        <v>89080</v>
+      </c>
+      <c r="B20" s="42">
+        <v>2</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E20" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="47">
+        <v>801</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="49">
+        <v>40</v>
+      </c>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="49">
+        <v>1</v>
+      </c>
+      <c r="W20" s="49">
+        <v>1</v>
+      </c>
+      <c r="X20" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="36.75">
+      <c r="A21" s="41">
+        <v>89080</v>
+      </c>
+      <c r="B21" s="42">
+        <v>3</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="47">
+        <v>801</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="49">
+        <v>40</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S21" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" s="49">
+        <v>1</v>
+      </c>
+      <c r="W21" s="49">
+        <v>1</v>
+      </c>
+      <c r="X21" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="36.75">
+      <c r="A22" s="41">
+        <v>89081</v>
+      </c>
+      <c r="B22" s="42">
+        <v>1</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E22" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="47">
+        <v>801</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="49">
+        <v>40</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" s="49">
+        <v>1</v>
+      </c>
+      <c r="W22" s="49">
+        <v>1</v>
+      </c>
+      <c r="X22" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="36.75">
+      <c r="A23" s="41">
+        <v>89081</v>
+      </c>
+      <c r="B23" s="42">
+        <v>2</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E23" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="47">
+        <v>801</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="49">
+        <v>40</v>
+      </c>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V23" s="49">
+        <v>1</v>
+      </c>
+      <c r="W23" s="49">
+        <v>1</v>
+      </c>
+      <c r="X23" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="36.75">
+      <c r="A24" s="41">
+        <v>89081</v>
+      </c>
+      <c r="B24" s="42">
+        <v>3</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="47">
+        <v>801</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="49">
+        <v>40</v>
+      </c>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V24" s="49">
+        <v>1</v>
+      </c>
+      <c r="W24" s="49">
+        <v>1</v>
+      </c>
+      <c r="X24" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="36.75">
+      <c r="A25" s="41">
+        <v>89082</v>
+      </c>
+      <c r="B25" s="42">
+        <v>1</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E25" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="47">
+        <v>801</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" s="49">
+        <v>40</v>
+      </c>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V25" s="49">
+        <v>1</v>
+      </c>
+      <c r="W25" s="49">
+        <v>1</v>
+      </c>
+      <c r="X25" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="36.75">
+      <c r="A26" s="41">
+        <v>89082</v>
+      </c>
+      <c r="B26" s="42">
+        <v>2</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E26" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="47">
+        <v>801</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="49">
+        <v>40</v>
+      </c>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="49">
+        <v>1</v>
+      </c>
+      <c r="W26" s="49">
+        <v>1</v>
+      </c>
+      <c r="X26" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="36.75">
+      <c r="A27" s="41">
+        <v>89082</v>
+      </c>
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="47">
+        <v>801</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="49">
+        <v>40</v>
+      </c>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="49">
+        <v>1</v>
+      </c>
+      <c r="W27" s="49">
+        <v>1</v>
+      </c>
+      <c r="X27" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="36.75">
+      <c r="A28" s="41">
+        <v>89083</v>
+      </c>
+      <c r="B28" s="42">
+        <v>1</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E28" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="47">
+        <v>801</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="49">
+        <v>40</v>
+      </c>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V28" s="49">
+        <v>1</v>
+      </c>
+      <c r="W28" s="49">
+        <v>1</v>
+      </c>
+      <c r="X28" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="36.75">
+      <c r="A29" s="41">
+        <v>89083</v>
+      </c>
+      <c r="B29" s="42">
+        <v>2</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E29" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="47">
+        <v>801</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="49">
+        <v>40</v>
+      </c>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S29" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U29" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V29" s="49">
+        <v>1</v>
+      </c>
+      <c r="W29" s="49">
+        <v>1</v>
+      </c>
+      <c r="X29" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="36.75">
+      <c r="A30" s="41">
+        <v>89083</v>
+      </c>
+      <c r="B30" s="42">
+        <v>3</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="47">
+        <v>801</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="49">
+        <v>40</v>
+      </c>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S30" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U30" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="49">
+        <v>1</v>
+      </c>
+      <c r="W30" s="49">
+        <v>1</v>
+      </c>
+      <c r="X30" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="36.75">
+      <c r="A31" s="41">
+        <v>89084</v>
+      </c>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E31" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="47">
+        <v>801</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="49">
+        <v>40</v>
+      </c>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S31" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T31" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U31" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V31" s="49">
+        <v>1</v>
+      </c>
+      <c r="W31" s="49">
+        <v>1</v>
+      </c>
+      <c r="X31" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="36.75">
+      <c r="A32" s="41">
+        <v>89084</v>
+      </c>
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E32" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="47">
+        <v>801</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="49">
+        <v>40</v>
+      </c>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S32" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T32" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U32" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V32" s="49">
+        <v>1</v>
+      </c>
+      <c r="W32" s="49">
+        <v>1</v>
+      </c>
+      <c r="X32" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="36.75">
+      <c r="A33" s="41">
+        <v>89084</v>
+      </c>
+      <c r="B33" s="42">
+        <v>3</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="47">
+        <v>801</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="49">
+        <v>40</v>
+      </c>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T33" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U33" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V33" s="49">
+        <v>1</v>
+      </c>
+      <c r="W33" s="49">
+        <v>1</v>
+      </c>
+      <c r="X33" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="36.75">
+      <c r="A34" s="41">
+        <v>89085</v>
+      </c>
+      <c r="B34" s="42">
+        <v>1</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E34" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="47">
+        <v>801</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="49">
+        <v>40</v>
+      </c>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S34" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" s="49">
+        <v>1</v>
+      </c>
+      <c r="W34" s="49">
+        <v>1</v>
+      </c>
+      <c r="X34" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="36.75">
+      <c r="A35" s="41">
+        <v>89085</v>
+      </c>
+      <c r="B35" s="42">
+        <v>2</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E35" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="47">
+        <v>801</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="49">
+        <v>40</v>
+      </c>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T35" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U35" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V35" s="49">
+        <v>1</v>
+      </c>
+      <c r="W35" s="49">
+        <v>1</v>
+      </c>
+      <c r="X35" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="36.75">
+      <c r="A36" s="41">
+        <v>89085</v>
+      </c>
+      <c r="B36" s="42">
+        <v>3</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="47">
+        <v>801</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O36" s="49">
+        <v>40</v>
+      </c>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T36" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U36" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V36" s="49">
+        <v>1</v>
+      </c>
+      <c r="W36" s="49">
+        <v>1</v>
+      </c>
+      <c r="X36" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="36.75">
+      <c r="A37" s="41">
+        <v>89086</v>
+      </c>
+      <c r="B37" s="42">
+        <v>1</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E37" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="47">
+        <v>801</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O37" s="49">
+        <v>40</v>
+      </c>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S37" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V37" s="49">
+        <v>1</v>
+      </c>
+      <c r="W37" s="49">
+        <v>1</v>
+      </c>
+      <c r="X37" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="36.75">
+      <c r="A38" s="41">
+        <v>89086</v>
+      </c>
+      <c r="B38" s="42">
+        <v>2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E38" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="47">
+        <v>801</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" s="49">
+        <v>40</v>
+      </c>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T38" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U38" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V38" s="49">
+        <v>1</v>
+      </c>
+      <c r="W38" s="49">
+        <v>1</v>
+      </c>
+      <c r="X38" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="36.75">
+      <c r="A39" s="41">
+        <v>89086</v>
+      </c>
+      <c r="B39" s="42">
+        <v>3</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="47">
+        <v>801</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O39" s="49">
+        <v>40</v>
+      </c>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S39" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V39" s="49">
+        <v>1</v>
+      </c>
+      <c r="W39" s="49">
+        <v>1</v>
+      </c>
+      <c r="X39" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="36.75">
+      <c r="A40" s="41">
+        <v>89087</v>
+      </c>
+      <c r="B40" s="42">
+        <v>1</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E40" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="47">
+        <v>801</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O40" s="49">
+        <v>40</v>
+      </c>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S40" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T40" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V40" s="49">
+        <v>1</v>
+      </c>
+      <c r="W40" s="49">
+        <v>1</v>
+      </c>
+      <c r="X40" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="36.75">
+      <c r="A41" s="41">
+        <v>89087</v>
+      </c>
+      <c r="B41" s="42">
+        <v>2</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E41" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="47">
+        <v>801</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="49">
+        <v>40</v>
+      </c>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S41" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T41" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U41" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V41" s="49">
+        <v>1</v>
+      </c>
+      <c r="W41" s="49">
+        <v>1</v>
+      </c>
+      <c r="X41" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="36.75">
+      <c r="A42" s="41">
+        <v>89087</v>
+      </c>
+      <c r="B42" s="42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="47">
+        <v>801</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N42" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" s="49">
+        <v>40</v>
+      </c>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S42" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T42" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42" s="49">
+        <v>1</v>
+      </c>
+      <c r="W42" s="49">
+        <v>1</v>
+      </c>
+      <c r="X42" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="36.75">
+      <c r="A43" s="41">
+        <v>89088</v>
+      </c>
+      <c r="B43" s="42">
+        <v>1</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E43" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="47">
+        <v>801</v>
+      </c>
+      <c r="L43" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="49">
+        <v>40</v>
+      </c>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S43" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T43" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V43" s="49">
+        <v>1</v>
+      </c>
+      <c r="W43" s="49">
+        <v>1</v>
+      </c>
+      <c r="X43" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="36.75">
+      <c r="A44" s="41">
+        <v>89088</v>
+      </c>
+      <c r="B44" s="42">
+        <v>2</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E44" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" s="47">
+        <v>801</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N44" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" s="49">
+        <v>40</v>
+      </c>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S44" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T44" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V44" s="49">
+        <v>1</v>
+      </c>
+      <c r="W44" s="49">
+        <v>1</v>
+      </c>
+      <c r="X44" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="36.75">
+      <c r="A45" s="41">
+        <v>89088</v>
+      </c>
+      <c r="B45" s="42">
+        <v>3</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="47">
+        <v>801</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N45" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O45" s="49">
+        <v>40</v>
+      </c>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S45" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T45" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V45" s="49">
+        <v>1</v>
+      </c>
+      <c r="W45" s="49">
+        <v>1</v>
+      </c>
+      <c r="X45" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="36.75">
+      <c r="A46" s="41">
+        <v>89089</v>
+      </c>
+      <c r="B46" s="42">
+        <v>1</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E46" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="47">
+        <v>801</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O46" s="49">
+        <v>40</v>
+      </c>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T46" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46" s="49">
+        <v>1</v>
+      </c>
+      <c r="W46" s="49">
+        <v>1</v>
+      </c>
+      <c r="X46" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="36.75">
+      <c r="A47" s="41">
+        <v>89089</v>
+      </c>
+      <c r="B47" s="42">
+        <v>2</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E47" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="47">
+        <v>801</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M47" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O47" s="49">
+        <v>40</v>
+      </c>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S47" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T47" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V47" s="49">
+        <v>1</v>
+      </c>
+      <c r="W47" s="49">
+        <v>1</v>
+      </c>
+      <c r="X47" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="36.75">
+      <c r="A48" s="41">
+        <v>89089</v>
+      </c>
+      <c r="B48" s="42">
+        <v>3</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" s="47">
+        <v>801</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N48" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O48" s="49">
+        <v>40</v>
+      </c>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S48" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T48" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V48" s="49">
+        <v>1</v>
+      </c>
+      <c r="W48" s="49">
+        <v>1</v>
+      </c>
+      <c r="X48" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="36.75">
+      <c r="A49" s="41">
+        <v>89090</v>
+      </c>
+      <c r="B49" s="42">
+        <v>1</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E49" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="47">
+        <v>801</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O49" s="49">
+        <v>40</v>
+      </c>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S49" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T49" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V49" s="49">
+        <v>1</v>
+      </c>
+      <c r="W49" s="49">
+        <v>1</v>
+      </c>
+      <c r="X49" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="36.75">
+      <c r="A50" s="41">
+        <v>89090</v>
+      </c>
+      <c r="B50" s="42">
+        <v>2</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E50" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="47">
+        <v>801</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N50" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O50" s="49">
+        <v>40</v>
+      </c>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S50" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T50" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V50" s="49">
+        <v>1</v>
+      </c>
+      <c r="W50" s="49">
+        <v>1</v>
+      </c>
+      <c r="X50" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="36.75">
+      <c r="A51" s="41">
+        <v>89090</v>
+      </c>
+      <c r="B51" s="42">
+        <v>3</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51" s="47">
+        <v>801</v>
+      </c>
+      <c r="L51" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M51" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N51" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O51" s="49">
+        <v>40</v>
+      </c>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S51" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T51" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U51" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V51" s="49">
+        <v>1</v>
+      </c>
+      <c r="W51" s="49">
+        <v>1</v>
+      </c>
+      <c r="X51" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="36.75">
+      <c r="A52" s="41">
+        <v>89091</v>
+      </c>
+      <c r="B52" s="42">
+        <v>1</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E52" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" s="47">
+        <v>801</v>
+      </c>
+      <c r="L52" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O52" s="49">
+        <v>40</v>
+      </c>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S52" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T52" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U52" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V52" s="49">
+        <v>1</v>
+      </c>
+      <c r="W52" s="49">
+        <v>1</v>
+      </c>
+      <c r="X52" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="36.75">
+      <c r="A53" s="41">
+        <v>89091</v>
+      </c>
+      <c r="B53" s="42">
+        <v>2</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E53" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="47">
+        <v>801</v>
+      </c>
+      <c r="L53" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M53" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O53" s="49">
+        <v>40</v>
+      </c>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S53" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T53" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U53" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V53" s="49">
+        <v>1</v>
+      </c>
+      <c r="W53" s="49">
+        <v>1</v>
+      </c>
+      <c r="X53" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="36.75">
+      <c r="A54" s="41">
+        <v>89091</v>
+      </c>
+      <c r="B54" s="42">
+        <v>3</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="47">
+        <v>801</v>
+      </c>
+      <c r="L54" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N54" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O54" s="49">
+        <v>40</v>
+      </c>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S54" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T54" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U54" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V54" s="49">
+        <v>1</v>
+      </c>
+      <c r="W54" s="49">
+        <v>1</v>
+      </c>
+      <c r="X54" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="36.75">
+      <c r="A55" s="41">
+        <v>89092</v>
+      </c>
+      <c r="B55" s="42">
+        <v>1</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E55" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" s="47">
+        <v>801</v>
+      </c>
+      <c r="L55" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N55" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O55" s="49">
+        <v>40</v>
+      </c>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S55" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T55" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U55" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V55" s="49">
+        <v>1</v>
+      </c>
+      <c r="W55" s="49">
+        <v>1</v>
+      </c>
+      <c r="X55" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="36.75">
+      <c r="A56" s="41">
+        <v>89092</v>
+      </c>
+      <c r="B56" s="42">
+        <v>2</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E56" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="47">
+        <v>801</v>
+      </c>
+      <c r="L56" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O56" s="49">
+        <v>40</v>
+      </c>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S56" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T56" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U56" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V56" s="49">
+        <v>1</v>
+      </c>
+      <c r="W56" s="49">
+        <v>1</v>
+      </c>
+      <c r="X56" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="36.75">
+      <c r="A57" s="41">
+        <v>89092</v>
+      </c>
+      <c r="B57" s="42">
+        <v>3</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J57" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="47">
+        <v>801</v>
+      </c>
+      <c r="L57" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M57" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N57" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O57" s="49">
+        <v>40</v>
+      </c>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S57" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T57" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U57" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V57" s="49">
+        <v>1</v>
+      </c>
+      <c r="W57" s="49">
+        <v>1</v>
+      </c>
+      <c r="X57" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="36.75">
+      <c r="A58" s="41">
+        <v>89093</v>
+      </c>
+      <c r="B58" s="42">
+        <v>1</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E58" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J58" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="47">
+        <v>801</v>
+      </c>
+      <c r="L58" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N58" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O58" s="49">
+        <v>40</v>
+      </c>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S58" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T58" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U58" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V58" s="49">
+        <v>1</v>
+      </c>
+      <c r="W58" s="49">
+        <v>1</v>
+      </c>
+      <c r="X58" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="36.75">
+      <c r="A59" s="41">
+        <v>89093</v>
+      </c>
+      <c r="B59" s="42">
+        <v>2</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E59" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J59" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="47">
+        <v>801</v>
+      </c>
+      <c r="L59" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M59" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O59" s="49">
+        <v>40</v>
+      </c>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S59" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T59" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U59" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V59" s="49">
+        <v>1</v>
+      </c>
+      <c r="W59" s="49">
+        <v>1</v>
+      </c>
+      <c r="X59" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="36.75">
+      <c r="A60" s="41">
+        <v>89093</v>
+      </c>
+      <c r="B60" s="42">
+        <v>3</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J60" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" s="47">
+        <v>801</v>
+      </c>
+      <c r="L60" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M60" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="49">
+        <v>40</v>
+      </c>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S60" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T60" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U60" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V60" s="49">
+        <v>1</v>
+      </c>
+      <c r="W60" s="49">
+        <v>1</v>
+      </c>
+      <c r="X60" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="36.75">
+      <c r="A61" s="41">
+        <v>89094</v>
+      </c>
+      <c r="B61" s="42">
+        <v>1</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E61" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J61" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="47">
+        <v>801</v>
+      </c>
+      <c r="L61" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M61" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O61" s="49">
+        <v>40</v>
+      </c>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S61" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T61" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U61" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V61" s="49">
+        <v>1</v>
+      </c>
+      <c r="W61" s="49">
+        <v>1</v>
+      </c>
+      <c r="X61" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="36.75">
+      <c r="A62" s="41">
+        <v>89094</v>
+      </c>
+      <c r="B62" s="42">
+        <v>2</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E62" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62" s="47">
+        <v>801</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N62" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O62" s="49">
+        <v>40</v>
+      </c>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S62" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T62" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U62" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V62" s="49">
+        <v>1</v>
+      </c>
+      <c r="W62" s="49">
+        <v>1</v>
+      </c>
+      <c r="X62" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="36.75">
+      <c r="A63" s="41">
+        <v>89094</v>
+      </c>
+      <c r="B63" s="42">
+        <v>3</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J63" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" s="47">
+        <v>801</v>
+      </c>
+      <c r="L63" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M63" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N63" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O63" s="49">
+        <v>40</v>
+      </c>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S63" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T63" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U63" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V63" s="49">
+        <v>1</v>
+      </c>
+      <c r="W63" s="49">
+        <v>1</v>
+      </c>
+      <c r="X63" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA63" s="42"/>
+      <c r="AB63" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="36.75">
+      <c r="A64" s="41">
+        <v>89095</v>
+      </c>
+      <c r="B64" s="42">
+        <v>1</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E64" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J64" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="47">
+        <v>801</v>
+      </c>
+      <c r="L64" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N64" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O64" s="49">
+        <v>40</v>
+      </c>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S64" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T64" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U64" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V64" s="49">
+        <v>1</v>
+      </c>
+      <c r="W64" s="49">
+        <v>1</v>
+      </c>
+      <c r="X64" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA64" s="42"/>
+      <c r="AB64" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="36.75">
+      <c r="A65" s="41">
+        <v>89095</v>
+      </c>
+      <c r="B65" s="42">
+        <v>2</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E65" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K65" s="47">
+        <v>801</v>
+      </c>
+      <c r="L65" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M65" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N65" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O65" s="49">
+        <v>40</v>
+      </c>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S65" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T65" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U65" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V65" s="49">
+        <v>1</v>
+      </c>
+      <c r="W65" s="49">
+        <v>1</v>
+      </c>
+      <c r="X65" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="36.75">
+      <c r="A66" s="41">
+        <v>89095</v>
+      </c>
+      <c r="B66" s="42">
+        <v>3</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66" s="47">
+        <v>801</v>
+      </c>
+      <c r="L66" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N66" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O66" s="49">
+        <v>40</v>
+      </c>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S66" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T66" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U66" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V66" s="49">
+        <v>1</v>
+      </c>
+      <c r="W66" s="49">
+        <v>1</v>
+      </c>
+      <c r="X66" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA66" s="42"/>
+      <c r="AB66" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="36.75">
+      <c r="A67" s="41">
+        <v>89096</v>
+      </c>
+      <c r="B67" s="42">
+        <v>1</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E67" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="47">
+        <v>801</v>
+      </c>
+      <c r="L67" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M67" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N67" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O67" s="49">
+        <v>40</v>
+      </c>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S67" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T67" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U67" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V67" s="49">
+        <v>1</v>
+      </c>
+      <c r="W67" s="49">
+        <v>1</v>
+      </c>
+      <c r="X67" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="36.75">
+      <c r="A68" s="41">
+        <v>89096</v>
+      </c>
+      <c r="B68" s="42">
+        <v>2</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E68" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="47">
+        <v>801</v>
+      </c>
+      <c r="L68" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M68" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N68" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O68" s="49">
+        <v>40</v>
+      </c>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S68" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T68" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U68" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V68" s="49">
+        <v>1</v>
+      </c>
+      <c r="W68" s="49">
+        <v>1</v>
+      </c>
+      <c r="X68" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="36.75">
+      <c r="A69" s="41">
+        <v>89096</v>
+      </c>
+      <c r="B69" s="42">
+        <v>3</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" s="47">
+        <v>801</v>
+      </c>
+      <c r="L69" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M69" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N69" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O69" s="49">
+        <v>40</v>
+      </c>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S69" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T69" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U69" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V69" s="49">
+        <v>1</v>
+      </c>
+      <c r="W69" s="49">
+        <v>1</v>
+      </c>
+      <c r="X69" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="36.75">
+      <c r="A70" s="41">
+        <v>89097</v>
+      </c>
+      <c r="B70" s="42">
+        <v>1</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E70" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J70" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="47">
+        <v>801</v>
+      </c>
+      <c r="L70" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M70" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N70" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O70" s="49">
+        <v>40</v>
+      </c>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S70" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T70" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U70" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V70" s="49">
+        <v>1</v>
+      </c>
+      <c r="W70" s="49">
+        <v>1</v>
+      </c>
+      <c r="X70" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y70" s="51"/>
+      <c r="Z70" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="36.75">
+      <c r="A71" s="41">
+        <v>89097</v>
+      </c>
+      <c r="B71" s="42">
+        <v>2</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E71" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K71" s="47">
+        <v>801</v>
+      </c>
+      <c r="L71" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M71" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N71" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O71" s="49">
+        <v>40</v>
+      </c>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S71" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T71" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U71" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V71" s="49">
+        <v>1</v>
+      </c>
+      <c r="W71" s="49">
+        <v>1</v>
+      </c>
+      <c r="X71" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA71" s="42"/>
+      <c r="AB71" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="36.75">
+      <c r="A72" s="41">
+        <v>89097</v>
+      </c>
+      <c r="B72" s="42">
+        <v>3</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I72" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K72" s="47">
+        <v>801</v>
+      </c>
+      <c r="L72" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M72" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N72" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O72" s="49">
+        <v>40</v>
+      </c>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S72" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T72" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U72" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V72" s="49">
+        <v>1</v>
+      </c>
+      <c r="W72" s="49">
+        <v>1</v>
+      </c>
+      <c r="X72" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y72" s="51"/>
+      <c r="Z72" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="36.75">
+      <c r="A73" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B73" s="42">
+        <v>1</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E73" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F73" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K73" s="47">
+        <v>801</v>
+      </c>
+      <c r="L73" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M73" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N73" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O73" s="49">
+        <v>40</v>
+      </c>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S73" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T73" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U73" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V73" s="49">
+        <v>1</v>
+      </c>
+      <c r="W73" s="49">
+        <v>1</v>
+      </c>
+      <c r="X73" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="36.75">
+      <c r="A74" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B74" s="42">
+        <v>2</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E74" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J74" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K74" s="47">
+        <v>801</v>
+      </c>
+      <c r="L74" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M74" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N74" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O74" s="49">
+        <v>40</v>
+      </c>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S74" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T74" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U74" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V74" s="49">
+        <v>1</v>
+      </c>
+      <c r="W74" s="49">
+        <v>1</v>
+      </c>
+      <c r="X74" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="36.75">
+      <c r="A75" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B75" s="42">
+        <v>3</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J75" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K75" s="47">
+        <v>801</v>
+      </c>
+      <c r="L75" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M75" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N75" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O75" s="49">
+        <v>40</v>
+      </c>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S75" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T75" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U75" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V75" s="49">
+        <v>1</v>
+      </c>
+      <c r="W75" s="49">
+        <v>1</v>
+      </c>
+      <c r="X75" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="36.75">
+      <c r="A76" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B76" s="42">
+        <v>1</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E76" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J76" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K76" s="47">
+        <v>801</v>
+      </c>
+      <c r="L76" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N76" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O76" s="49">
+        <v>40</v>
+      </c>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S76" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T76" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U76" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V76" s="49">
+        <v>1</v>
+      </c>
+      <c r="W76" s="49">
+        <v>1</v>
+      </c>
+      <c r="X76" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="36.75">
+      <c r="A77" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B77" s="42">
+        <v>2</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E77" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J77" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="47">
+        <v>801</v>
+      </c>
+      <c r="L77" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M77" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N77" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O77" s="49">
+        <v>40</v>
+      </c>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S77" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T77" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U77" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V77" s="49">
+        <v>1</v>
+      </c>
+      <c r="W77" s="49">
+        <v>1</v>
+      </c>
+      <c r="X77" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="36.75">
+      <c r="A78" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B78" s="42">
+        <v>3</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J78" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" s="47">
+        <v>801</v>
+      </c>
+      <c r="L78" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M78" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N78" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O78" s="49">
+        <v>40</v>
+      </c>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S78" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T78" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U78" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V78" s="49">
+        <v>1</v>
+      </c>
+      <c r="W78" s="49">
+        <v>1</v>
+      </c>
+      <c r="X78" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y78" s="51"/>
+      <c r="Z78" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="36.75">
+      <c r="A79" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B79" s="42">
+        <v>1</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E79" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F79" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J79" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="47">
+        <v>801</v>
+      </c>
+      <c r="L79" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M79" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N79" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O79" s="49">
+        <v>40</v>
+      </c>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S79" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T79" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U79" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V79" s="49">
+        <v>1</v>
+      </c>
+      <c r="W79" s="49">
+        <v>1</v>
+      </c>
+      <c r="X79" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="36.75">
+      <c r="A80" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B80" s="42">
+        <v>2</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E80" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J80" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80" s="47">
+        <v>801</v>
+      </c>
+      <c r="L80" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M80" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N80" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O80" s="49">
+        <v>40</v>
+      </c>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S80" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T80" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U80" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V80" s="49">
+        <v>1</v>
+      </c>
+      <c r="W80" s="49">
+        <v>1</v>
+      </c>
+      <c r="X80" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y80" s="51"/>
+      <c r="Z80" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="36.75">
+      <c r="A81" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B81" s="42">
+        <v>3</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J81" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K81" s="47">
+        <v>801</v>
+      </c>
+      <c r="L81" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M81" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N81" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O81" s="49">
+        <v>40</v>
+      </c>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S81" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T81" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U81" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V81" s="49">
+        <v>1</v>
+      </c>
+      <c r="W81" s="49">
+        <v>1</v>
+      </c>
+      <c r="X81" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="36.75">
+      <c r="A82" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B82" s="42">
+        <v>1</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E82" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F82" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I82" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J82" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K82" s="47">
+        <v>801</v>
+      </c>
+      <c r="L82" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M82" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N82" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O82" s="49">
+        <v>40</v>
+      </c>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S82" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T82" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U82" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V82" s="49">
+        <v>1</v>
+      </c>
+      <c r="W82" s="49">
+        <v>1</v>
+      </c>
+      <c r="X82" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA82" s="42"/>
+      <c r="AB82" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="36.75">
+      <c r="A83" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B83" s="42">
+        <v>2</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E83" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F83" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J83" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K83" s="47">
+        <v>801</v>
+      </c>
+      <c r="L83" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M83" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N83" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O83" s="49">
+        <v>40</v>
+      </c>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S83" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T83" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U83" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V83" s="49">
+        <v>1</v>
+      </c>
+      <c r="W83" s="49">
+        <v>1</v>
+      </c>
+      <c r="X83" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="36.75">
+      <c r="A84" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B84" s="42">
+        <v>3</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J84" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="47">
+        <v>801</v>
+      </c>
+      <c r="L84" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M84" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N84" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O84" s="49">
+        <v>40</v>
+      </c>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S84" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T84" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U84" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V84" s="49">
+        <v>1</v>
+      </c>
+      <c r="W84" s="49">
+        <v>1</v>
+      </c>
+      <c r="X84" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="36.75">
+      <c r="A85" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B85" s="42">
+        <v>1</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E85" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F85" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J85" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K85" s="47">
+        <v>801</v>
+      </c>
+      <c r="L85" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M85" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N85" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O85" s="49">
+        <v>40</v>
+      </c>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S85" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T85" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U85" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V85" s="49">
+        <v>1</v>
+      </c>
+      <c r="W85" s="49">
+        <v>1</v>
+      </c>
+      <c r="X85" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="36.75">
+      <c r="A86" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B86" s="42">
+        <v>2</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E86" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J86" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K86" s="47">
+        <v>801</v>
+      </c>
+      <c r="L86" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M86" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N86" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O86" s="49">
+        <v>40</v>
+      </c>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S86" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T86" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U86" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V86" s="49">
+        <v>1</v>
+      </c>
+      <c r="W86" s="49">
+        <v>1</v>
+      </c>
+      <c r="X86" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="36.75">
+      <c r="A87" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B87" s="42">
+        <v>3</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J87" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K87" s="47">
+        <v>801</v>
+      </c>
+      <c r="L87" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M87" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N87" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O87" s="49">
+        <v>40</v>
+      </c>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S87" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T87" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U87" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V87" s="49">
+        <v>1</v>
+      </c>
+      <c r="W87" s="49">
+        <v>1</v>
+      </c>
+      <c r="X87" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="36.75">
+      <c r="A88" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B88" s="42">
+        <v>1</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E88" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J88" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="47">
+        <v>801</v>
+      </c>
+      <c r="L88" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M88" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N88" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O88" s="49">
+        <v>40</v>
+      </c>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S88" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T88" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U88" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V88" s="49">
+        <v>1</v>
+      </c>
+      <c r="W88" s="49">
+        <v>1</v>
+      </c>
+      <c r="X88" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y88" s="51"/>
+      <c r="Z88" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA88" s="42"/>
+      <c r="AB88" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="36.75">
+      <c r="A89" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B89" s="42">
+        <v>2</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E89" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J89" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="47">
+        <v>801</v>
+      </c>
+      <c r="L89" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M89" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N89" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O89" s="49">
+        <v>40</v>
+      </c>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S89" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T89" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U89" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V89" s="49">
+        <v>1</v>
+      </c>
+      <c r="W89" s="49">
+        <v>1</v>
+      </c>
+      <c r="X89" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y89" s="51"/>
+      <c r="Z89" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA89" s="42"/>
+      <c r="AB89" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="36.75">
+      <c r="A90" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B90" s="42">
+        <v>3</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J90" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K90" s="47">
+        <v>801</v>
+      </c>
+      <c r="L90" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M90" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N90" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O90" s="49">
+        <v>40</v>
+      </c>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S90" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T90" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U90" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V90" s="49">
+        <v>1</v>
+      </c>
+      <c r="W90" s="49">
+        <v>1</v>
+      </c>
+      <c r="X90" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y90" s="51"/>
+      <c r="Z90" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA90" s="42"/>
+      <c r="AB90" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="36.75">
+      <c r="A91" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B91" s="42">
+        <v>1</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E91" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J91" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K91" s="47">
+        <v>801</v>
+      </c>
+      <c r="L91" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M91" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N91" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O91" s="49">
+        <v>40</v>
+      </c>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S91" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T91" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U91" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V91" s="49">
+        <v>1</v>
+      </c>
+      <c r="W91" s="49">
+        <v>1</v>
+      </c>
+      <c r="X91" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y91" s="51"/>
+      <c r="Z91" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA91" s="42"/>
+      <c r="AB91" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="36.75">
+      <c r="A92" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B92" s="42">
+        <v>2</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E92" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F92" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J92" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K92" s="47">
+        <v>801</v>
+      </c>
+      <c r="L92" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M92" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N92" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O92" s="49">
+        <v>40</v>
+      </c>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S92" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T92" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U92" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V92" s="49">
+        <v>1</v>
+      </c>
+      <c r="W92" s="49">
+        <v>1</v>
+      </c>
+      <c r="X92" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y92" s="51"/>
+      <c r="Z92" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="36.75">
+      <c r="A93" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B93" s="42">
+        <v>3</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J93" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K93" s="47">
+        <v>801</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M93" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N93" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O93" s="49">
+        <v>40</v>
+      </c>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S93" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T93" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U93" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V93" s="49">
+        <v>1</v>
+      </c>
+      <c r="W93" s="49">
+        <v>1</v>
+      </c>
+      <c r="X93" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA93" s="42"/>
+      <c r="AB93" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="36.75">
+      <c r="A94" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B94" s="42">
+        <v>1</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E94" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J94" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K94" s="47">
+        <v>801</v>
+      </c>
+      <c r="L94" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M94" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N94" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O94" s="49">
+        <v>40</v>
+      </c>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S94" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T94" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U94" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V94" s="49">
+        <v>1</v>
+      </c>
+      <c r="W94" s="49">
+        <v>1</v>
+      </c>
+      <c r="X94" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y94" s="51"/>
+      <c r="Z94" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA94" s="42"/>
+      <c r="AB94" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="36.75">
+      <c r="A95" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B95" s="42">
+        <v>2</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E95" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J95" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K95" s="47">
+        <v>801</v>
+      </c>
+      <c r="L95" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M95" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N95" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O95" s="49">
+        <v>40</v>
+      </c>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S95" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T95" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U95" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V95" s="49">
+        <v>1</v>
+      </c>
+      <c r="W95" s="49">
+        <v>1</v>
+      </c>
+      <c r="X95" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y95" s="51"/>
+      <c r="Z95" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA95" s="42"/>
+      <c r="AB95" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="36.75">
+      <c r="A96" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B96" s="42">
+        <v>3</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J96" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K96" s="47">
+        <v>801</v>
+      </c>
+      <c r="L96" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M96" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N96" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O96" s="49">
+        <v>40</v>
+      </c>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S96" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T96" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U96" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V96" s="49">
+        <v>1</v>
+      </c>
+      <c r="W96" s="49">
+        <v>1</v>
+      </c>
+      <c r="X96" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y96" s="51"/>
+      <c r="Z96" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="36.75">
+      <c r="A97" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B97" s="42">
+        <v>1</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E97" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I97" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J97" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K97" s="47">
+        <v>801</v>
+      </c>
+      <c r="L97" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M97" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N97" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O97" s="49">
+        <v>40</v>
+      </c>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S97" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T97" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U97" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V97" s="49">
+        <v>1</v>
+      </c>
+      <c r="W97" s="49">
+        <v>1</v>
+      </c>
+      <c r="X97" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y97" s="51"/>
+      <c r="Z97" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA97" s="42"/>
+      <c r="AB97" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="36.75">
+      <c r="A98" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B98" s="42">
+        <v>2</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E98" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F98" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H98" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J98" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K98" s="47">
+        <v>801</v>
+      </c>
+      <c r="L98" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M98" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N98" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O98" s="49">
+        <v>40</v>
+      </c>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S98" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T98" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U98" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V98" s="49">
+        <v>1</v>
+      </c>
+      <c r="W98" s="49">
+        <v>1</v>
+      </c>
+      <c r="X98" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y98" s="51"/>
+      <c r="Z98" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA98" s="42"/>
+      <c r="AB98" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="36.75">
+      <c r="A99" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B99" s="42">
+        <v>3</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G99" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H99" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I99" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J99" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K99" s="47">
+        <v>801</v>
+      </c>
+      <c r="L99" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M99" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N99" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O99" s="49">
+        <v>40</v>
+      </c>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S99" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T99" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U99" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V99" s="49">
+        <v>1</v>
+      </c>
+      <c r="W99" s="49">
+        <v>1</v>
+      </c>
+      <c r="X99" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y99" s="51"/>
+      <c r="Z99" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA99" s="42"/>
+      <c r="AB99" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="36.75">
+      <c r="A100" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B100" s="42">
+        <v>1</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E100" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J100" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K100" s="47">
+        <v>801</v>
+      </c>
+      <c r="L100" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M100" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N100" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O100" s="49">
+        <v>40</v>
+      </c>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S100" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T100" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U100" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V100" s="49">
+        <v>1</v>
+      </c>
+      <c r="W100" s="49">
+        <v>1</v>
+      </c>
+      <c r="X100" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y100" s="51"/>
+      <c r="Z100" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA100" s="42"/>
+      <c r="AB100" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="36.75">
+      <c r="A101" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B101" s="42">
+        <v>2</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E101" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J101" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K101" s="47">
+        <v>801</v>
+      </c>
+      <c r="L101" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M101" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N101" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O101" s="49">
+        <v>40</v>
+      </c>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S101" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T101" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U101" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V101" s="49">
+        <v>1</v>
+      </c>
+      <c r="W101" s="49">
+        <v>1</v>
+      </c>
+      <c r="X101" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y101" s="51"/>
+      <c r="Z101" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA101" s="42"/>
+      <c r="AB101" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="36.75">
+      <c r="A102" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B102" s="42">
+        <v>3</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J102" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" s="47">
+        <v>801</v>
+      </c>
+      <c r="L102" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M102" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N102" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O102" s="49">
+        <v>40</v>
+      </c>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S102" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T102" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U102" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V102" s="49">
+        <v>1</v>
+      </c>
+      <c r="W102" s="49">
+        <v>1</v>
+      </c>
+      <c r="X102" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y102" s="51"/>
+      <c r="Z102" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA102" s="42"/>
+      <c r="AB102" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="36.75">
+      <c r="A103" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B103" s="42">
+        <v>1</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E103" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J103" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K103" s="47">
+        <v>801</v>
+      </c>
+      <c r="L103" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M103" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N103" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O103" s="49">
+        <v>40</v>
+      </c>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S103" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T103" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U103" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V103" s="49">
+        <v>1</v>
+      </c>
+      <c r="W103" s="49">
+        <v>1</v>
+      </c>
+      <c r="X103" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA103" s="42"/>
+      <c r="AB103" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="36.75">
+      <c r="A104" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B104" s="42">
+        <v>2</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E104" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F104" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J104" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K104" s="47">
+        <v>801</v>
+      </c>
+      <c r="L104" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M104" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N104" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O104" s="49">
+        <v>40</v>
+      </c>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S104" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T104" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U104" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V104" s="49">
+        <v>1</v>
+      </c>
+      <c r="W104" s="49">
+        <v>1</v>
+      </c>
+      <c r="X104" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y104" s="51"/>
+      <c r="Z104" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="36.75">
+      <c r="A105" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B105" s="42">
+        <v>3</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J105" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K105" s="47">
+        <v>801</v>
+      </c>
+      <c r="L105" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M105" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N105" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O105" s="49">
+        <v>40</v>
+      </c>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S105" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T105" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U105" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V105" s="49">
+        <v>1</v>
+      </c>
+      <c r="W105" s="49">
+        <v>1</v>
+      </c>
+      <c r="X105" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA105" s="42"/>
+      <c r="AB105" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="36.75">
+      <c r="A106" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B106" s="42">
+        <v>1</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E106" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F106" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J106" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K106" s="47">
+        <v>801</v>
+      </c>
+      <c r="L106" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M106" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N106" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O106" s="49">
+        <v>40</v>
+      </c>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S106" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T106" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U106" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V106" s="49">
+        <v>1</v>
+      </c>
+      <c r="W106" s="49">
+        <v>1</v>
+      </c>
+      <c r="X106" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y106" s="51"/>
+      <c r="Z106" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA106" s="42"/>
+      <c r="AB106" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="36.75">
+      <c r="A107" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B107" s="42">
+        <v>2</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E107" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J107" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K107" s="47">
+        <v>801</v>
+      </c>
+      <c r="L107" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M107" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N107" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O107" s="49">
+        <v>40</v>
+      </c>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S107" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="T107" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U107" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V107" s="49">
+        <v>1</v>
+      </c>
+      <c r="W107" s="49">
+        <v>1</v>
+      </c>
+      <c r="X107" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y107" s="51"/>
+      <c r="Z107" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="36.75">
+      <c r="A108" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B108" s="42">
+        <v>3</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J108" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K108" s="47">
+        <v>801</v>
+      </c>
+      <c r="L108" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M108" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N108" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O108" s="49">
+        <v>40</v>
+      </c>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S108" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T108" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U108" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V108" s="49">
+        <v>1</v>
+      </c>
+      <c r="W108" s="49">
+        <v>1</v>
+      </c>
+      <c r="X108" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y108" s="51"/>
+      <c r="Z108" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA108" s="42"/>
+      <c r="AB108" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="36.75">
+      <c r="A109" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B109" s="42">
+        <v>1</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E109" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I109" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J109" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K109" s="47">
+        <v>801</v>
+      </c>
+      <c r="L109" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M109" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N109" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O109" s="49">
+        <v>40</v>
+      </c>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S109" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T109" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U109" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V109" s="49">
+        <v>1</v>
+      </c>
+      <c r="W109" s="49">
+        <v>1</v>
+      </c>
+      <c r="X109" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y109" s="51"/>
+      <c r="Z109" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA109" s="42"/>
+      <c r="AB109" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="36.75">
+      <c r="A110" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B110" s="42">
+        <v>2</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E110" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F110" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J110" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K110" s="47">
+        <v>801</v>
+      </c>
+      <c r="L110" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M110" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N110" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O110" s="49">
+        <v>40</v>
+      </c>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S110" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T110" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U110" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V110" s="49">
+        <v>1</v>
+      </c>
+      <c r="W110" s="49">
+        <v>1</v>
+      </c>
+      <c r="X110" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y110" s="51"/>
+      <c r="Z110" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA110" s="42"/>
+      <c r="AB110" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="36.75">
+      <c r="A111" s="41"/>
+      <c r="B111" s="42">
+        <v>3</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G111" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I111" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J111" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K111" s="47">
+        <v>801</v>
+      </c>
+      <c r="L111" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M111" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N111" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O111" s="49">
+        <v>40</v>
+      </c>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S111" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T111" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U111" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V111" s="49">
+        <v>1</v>
+      </c>
+      <c r="W111" s="49">
+        <v>1</v>
+      </c>
+      <c r="X111" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y111" s="51"/>
+      <c r="Z111" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA111" s="42"/>
+      <c r="AB111" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="36.75">
+      <c r="A112" s="41">
+        <v>89078</v>
+      </c>
+      <c r="B112" s="42">
+        <v>1</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="43">
+        <v>40350</v>
+      </c>
+      <c r="E112" s="44">
+        <v>40909</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112" s="46">
+        <v>7005</v>
+      </c>
+      <c r="J112" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K112" s="47">
+        <v>801</v>
+      </c>
+      <c r="L112" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M112" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N112" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O112" s="49">
+        <v>40</v>
+      </c>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S112" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T112" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U112" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V112" s="49">
+        <v>1</v>
+      </c>
+      <c r="W112" s="49">
+        <v>1</v>
+      </c>
+      <c r="X112" s="43">
+        <v>40350</v>
+      </c>
+      <c r="Y112" s="51"/>
+      <c r="Z112" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA112" s="42"/>
+      <c r="AB112" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="36.75">
+      <c r="A113" s="41"/>
+      <c r="B113" s="42">
+        <v>2</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="44">
+        <v>40909</v>
+      </c>
+      <c r="E113" s="53">
+        <v>41639</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J113" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K113" s="47">
+        <v>801</v>
+      </c>
+      <c r="L113" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M113" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N113" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O113" s="49">
+        <v>40</v>
+      </c>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S113" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T113" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U113" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V113" s="49">
+        <v>1</v>
+      </c>
+      <c r="W113" s="49">
+        <v>1</v>
+      </c>
+      <c r="X113" s="44">
+        <v>40909</v>
+      </c>
+      <c r="Y113" s="51"/>
+      <c r="Z113" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA113" s="42"/>
+      <c r="AB113" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="36.75">
+      <c r="A114" s="41"/>
+      <c r="B114" s="42">
+        <v>3</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="43">
+        <v>41640</v>
+      </c>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G114" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114" s="46">
+        <v>7006</v>
+      </c>
+      <c r="J114" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K114" s="47">
+        <v>801</v>
+      </c>
+      <c r="L114" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M114" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N114" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O114" s="49">
+        <v>40</v>
+      </c>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S114" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="T114" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U114" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V114" s="49">
+        <v>1</v>
+      </c>
+      <c r="W114" s="49">
+        <v>1</v>
+      </c>
+      <c r="X114" s="43">
+        <v>41640</v>
+      </c>
+      <c r="Y114" s="51"/>
+      <c r="Z114" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA114" s="42"/>
+      <c r="AB114" s="42" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2181,5 +9713,6 @@
     <hyperlink ref="I1" location="'Index Page'!A9" display="Index Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMAssignments.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/InfovityHCMAssignments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="88">
   <si>
     <t>Worker Assignment</t>
   </si>
@@ -277,12 +277,6 @@
   </si>
   <si>
     <t>Non Worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Legal Employer [LOV] </t>
-  </si>
-  <si>
-    <t>USA HSCIENCE Corp</t>
   </si>
   <si>
     <t>Some XX Reason</t>
@@ -574,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -741,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,7 +1031,7 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="23.25">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,9 +1065,8 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" s="15" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:27" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1102,9 +1098,8 @@
       <c r="Y2" s="57"/>
       <c r="Z2" s="58"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="21" customFormat="1" ht="63.75">
+    </row>
+    <row r="3" spans="1:27" s="21" customFormat="1" ht="63.75">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1186,11 +1181,8 @@
       <c r="AA3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="25" customFormat="1">
+    </row>
+    <row r="4" spans="1:27" s="25" customFormat="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1220,9 +1212,8 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" ht="191.25">
+    </row>
+    <row r="5" spans="1:27" ht="191.25">
       <c r="A5" s="26" t="s">
         <v>33</v>
       </c>
@@ -1270,9 +1261,8 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
       <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="1:28" s="40" customFormat="1" ht="24">
+    </row>
+    <row r="6" spans="1:27" s="40" customFormat="1" ht="24">
       <c r="A6" s="36" t="s">
         <v>43</v>
       </c>
@@ -1354,12 +1344,9 @@
       <c r="AA6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="52" customFormat="1" ht="48">
-      <c r="A7" s="41">
+    </row>
+    <row r="7" spans="1:27" s="52" customFormat="1" ht="48">
+      <c r="A7" s="59">
         <v>89076</v>
       </c>
       <c r="B7" s="42">
@@ -1378,10 +1365,10 @@
         <v>69</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="46">
         <v>7005</v>
@@ -1429,15 +1416,12 @@
       </c>
       <c r="Y7" s="51"/>
       <c r="Z7" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="42"/>
-      <c r="AB7" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="52" customFormat="1" ht="48">
-      <c r="A8" s="41">
+    </row>
+    <row r="8" spans="1:27" s="52" customFormat="1" ht="48">
+      <c r="A8" s="59">
         <v>89076</v>
       </c>
       <c r="B8" s="42">
@@ -1456,10 +1440,10 @@
         <v>78</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" s="46">
         <v>7006</v>
@@ -1507,15 +1491,12 @@
       </c>
       <c r="Y8" s="51"/>
       <c r="Z8" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA8" s="42"/>
-      <c r="AB8" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="52" customFormat="1" ht="36">
-      <c r="A9" s="41">
+    </row>
+    <row r="9" spans="1:27" s="52" customFormat="1" ht="36">
+      <c r="A9" s="59">
         <v>89076</v>
       </c>
       <c r="B9" s="42">
@@ -1583,15 +1564,12 @@
       </c>
       <c r="Y9" s="51"/>
       <c r="Z9" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA9" s="42"/>
-      <c r="AB9" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="36.75">
-      <c r="A10" s="41">
+    </row>
+    <row r="10" spans="1:27" ht="36.75">
+      <c r="A10" s="59">
         <v>89077</v>
       </c>
       <c r="B10" s="42">
@@ -1661,15 +1639,12 @@
       </c>
       <c r="Y10" s="51"/>
       <c r="Z10" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="36.75">
-      <c r="A11" s="41">
+    </row>
+    <row r="11" spans="1:27" ht="36.75">
+      <c r="A11" s="59">
         <v>89077</v>
       </c>
       <c r="B11" s="42">
@@ -1739,15 +1714,12 @@
       </c>
       <c r="Y11" s="51"/>
       <c r="Z11" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA11" s="42"/>
-      <c r="AB11" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="36.75">
-      <c r="A12" s="41">
+    </row>
+    <row r="12" spans="1:27" ht="36.75">
+      <c r="A12" s="59">
         <v>89077</v>
       </c>
       <c r="B12" s="42">
@@ -1815,15 +1787,12 @@
       </c>
       <c r="Y12" s="51"/>
       <c r="Z12" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA12" s="42"/>
-      <c r="AB12" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="36.75">
-      <c r="A13" s="41">
+    </row>
+    <row r="13" spans="1:27" ht="36.75">
+      <c r="A13" s="59">
         <v>89078</v>
       </c>
       <c r="B13" s="42">
@@ -1893,15 +1862,12 @@
       </c>
       <c r="Y13" s="51"/>
       <c r="Z13" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA13" s="42"/>
-      <c r="AB13" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="36.75">
-      <c r="A14" s="41">
+    </row>
+    <row r="14" spans="1:27" ht="36.75">
+      <c r="A14" s="59">
         <v>89078</v>
       </c>
       <c r="B14" s="42">
@@ -1971,15 +1937,12 @@
       </c>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA14" s="42"/>
-      <c r="AB14" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="36.75">
-      <c r="A15" s="41">
+    </row>
+    <row r="15" spans="1:27" ht="36.75">
+      <c r="A15" s="59">
         <v>89078</v>
       </c>
       <c r="B15" s="42">
@@ -2047,15 +2010,12 @@
       </c>
       <c r="Y15" s="51"/>
       <c r="Z15" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA15" s="42"/>
-      <c r="AB15" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="36.75">
-      <c r="A16" s="41">
+    </row>
+    <row r="16" spans="1:27" ht="36.75">
+      <c r="A16" s="59">
         <v>89079</v>
       </c>
       <c r="B16" s="42">
@@ -2125,15 +2085,12 @@
       </c>
       <c r="Y16" s="51"/>
       <c r="Z16" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="42"/>
-      <c r="AB16" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="36.75">
-      <c r="A17" s="41">
+    </row>
+    <row r="17" spans="1:27" ht="36.75">
+      <c r="A17" s="59">
         <v>89079</v>
       </c>
       <c r="B17" s="42">
@@ -2203,15 +2160,12 @@
       </c>
       <c r="Y17" s="51"/>
       <c r="Z17" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="42"/>
-      <c r="AB17" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="36.75">
-      <c r="A18" s="41">
+    </row>
+    <row r="18" spans="1:27" ht="36.75">
+      <c r="A18" s="59">
         <v>89079</v>
       </c>
       <c r="B18" s="42">
@@ -2279,15 +2233,12 @@
       </c>
       <c r="Y18" s="51"/>
       <c r="Z18" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="42"/>
-      <c r="AB18" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="36.75">
-      <c r="A19" s="41">
+    </row>
+    <row r="19" spans="1:27" ht="36.75">
+      <c r="A19" s="59">
         <v>89080</v>
       </c>
       <c r="B19" s="42">
@@ -2357,15 +2308,12 @@
       </c>
       <c r="Y19" s="51"/>
       <c r="Z19" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="42"/>
-      <c r="AB19" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="36.75">
-      <c r="A20" s="41">
+    </row>
+    <row r="20" spans="1:27" ht="36.75">
+      <c r="A20" s="59">
         <v>89080</v>
       </c>
       <c r="B20" s="42">
@@ -2435,15 +2383,12 @@
       </c>
       <c r="Y20" s="51"/>
       <c r="Z20" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="36.75">
-      <c r="A21" s="41">
+    </row>
+    <row r="21" spans="1:27" ht="36.75">
+      <c r="A21" s="59">
         <v>89080</v>
       </c>
       <c r="B21" s="42">
@@ -2511,15 +2456,12 @@
       </c>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA21" s="42"/>
-      <c r="AB21" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="36.75">
-      <c r="A22" s="41">
+    </row>
+    <row r="22" spans="1:27" ht="36.75">
+      <c r="A22" s="59">
         <v>89081</v>
       </c>
       <c r="B22" s="42">
@@ -2589,15 +2531,12 @@
       </c>
       <c r="Y22" s="51"/>
       <c r="Z22" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA22" s="42"/>
-      <c r="AB22" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="36.75">
-      <c r="A23" s="41">
+    </row>
+    <row r="23" spans="1:27" ht="36.75">
+      <c r="A23" s="59">
         <v>89081</v>
       </c>
       <c r="B23" s="42">
@@ -2667,15 +2606,12 @@
       </c>
       <c r="Y23" s="51"/>
       <c r="Z23" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA23" s="42"/>
-      <c r="AB23" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="36.75">
-      <c r="A24" s="41">
+    </row>
+    <row r="24" spans="1:27" ht="36.75">
+      <c r="A24" s="59">
         <v>89081</v>
       </c>
       <c r="B24" s="42">
@@ -2743,15 +2679,12 @@
       </c>
       <c r="Y24" s="51"/>
       <c r="Z24" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA24" s="42"/>
-      <c r="AB24" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="36.75">
-      <c r="A25" s="41">
+    </row>
+    <row r="25" spans="1:27" ht="36.75">
+      <c r="A25" s="59">
         <v>89082</v>
       </c>
       <c r="B25" s="42">
@@ -2821,15 +2754,12 @@
       </c>
       <c r="Y25" s="51"/>
       <c r="Z25" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA25" s="42"/>
-      <c r="AB25" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="36.75">
-      <c r="A26" s="41">
+    </row>
+    <row r="26" spans="1:27" ht="36.75">
+      <c r="A26" s="59">
         <v>89082</v>
       </c>
       <c r="B26" s="42">
@@ -2899,15 +2829,12 @@
       </c>
       <c r="Y26" s="51"/>
       <c r="Z26" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA26" s="42"/>
-      <c r="AB26" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="36.75">
-      <c r="A27" s="41">
+    </row>
+    <row r="27" spans="1:27" ht="36.75">
+      <c r="A27" s="59">
         <v>89082</v>
       </c>
       <c r="B27" s="42">
@@ -2975,15 +2902,12 @@
       </c>
       <c r="Y27" s="51"/>
       <c r="Z27" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA27" s="42"/>
-      <c r="AB27" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="36.75">
-      <c r="A28" s="41">
+    </row>
+    <row r="28" spans="1:27" ht="36.75">
+      <c r="A28" s="59">
         <v>89083</v>
       </c>
       <c r="B28" s="42">
@@ -3053,15 +2977,12 @@
       </c>
       <c r="Y28" s="51"/>
       <c r="Z28" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA28" s="42"/>
-      <c r="AB28" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="36.75">
-      <c r="A29" s="41">
+    </row>
+    <row r="29" spans="1:27" ht="36.75">
+      <c r="A29" s="59">
         <v>89083</v>
       </c>
       <c r="B29" s="42">
@@ -3131,15 +3052,12 @@
       </c>
       <c r="Y29" s="51"/>
       <c r="Z29" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA29" s="42"/>
-      <c r="AB29" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="36.75">
-      <c r="A30" s="41">
+    </row>
+    <row r="30" spans="1:27" ht="36.75">
+      <c r="A30" s="59">
         <v>89083</v>
       </c>
       <c r="B30" s="42">
@@ -3207,15 +3125,12 @@
       </c>
       <c r="Y30" s="51"/>
       <c r="Z30" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA30" s="42"/>
-      <c r="AB30" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="36.75">
-      <c r="A31" s="41">
+    </row>
+    <row r="31" spans="1:27" ht="36.75">
+      <c r="A31" s="59">
         <v>89084</v>
       </c>
       <c r="B31" s="42">
@@ -3285,15 +3200,12 @@
       </c>
       <c r="Y31" s="51"/>
       <c r="Z31" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA31" s="42"/>
-      <c r="AB31" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="36.75">
-      <c r="A32" s="41">
+    </row>
+    <row r="32" spans="1:27" ht="36.75">
+      <c r="A32" s="59">
         <v>89084</v>
       </c>
       <c r="B32" s="42">
@@ -3363,15 +3275,12 @@
       </c>
       <c r="Y32" s="51"/>
       <c r="Z32" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="42"/>
-      <c r="AB32" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="36.75">
-      <c r="A33" s="41">
+    </row>
+    <row r="33" spans="1:27" ht="36.75">
+      <c r="A33" s="59">
         <v>89084</v>
       </c>
       <c r="B33" s="42">
@@ -3439,15 +3348,12 @@
       </c>
       <c r="Y33" s="51"/>
       <c r="Z33" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA33" s="42"/>
-      <c r="AB33" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="36.75">
-      <c r="A34" s="41">
+    </row>
+    <row r="34" spans="1:27" ht="36.75">
+      <c r="A34" s="59">
         <v>89085</v>
       </c>
       <c r="B34" s="42">
@@ -3517,15 +3423,12 @@
       </c>
       <c r="Y34" s="51"/>
       <c r="Z34" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA34" s="42"/>
-      <c r="AB34" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="36.75">
-      <c r="A35" s="41">
+    </row>
+    <row r="35" spans="1:27" ht="36.75">
+      <c r="A35" s="59">
         <v>89085</v>
       </c>
       <c r="B35" s="42">
@@ -3595,15 +3498,12 @@
       </c>
       <c r="Y35" s="51"/>
       <c r="Z35" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA35" s="42"/>
-      <c r="AB35" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="36.75">
-      <c r="A36" s="41">
+    </row>
+    <row r="36" spans="1:27" ht="36.75">
+      <c r="A36" s="59">
         <v>89085</v>
       </c>
       <c r="B36" s="42">
@@ -3671,15 +3571,12 @@
       </c>
       <c r="Y36" s="51"/>
       <c r="Z36" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA36" s="42"/>
-      <c r="AB36" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="36.75">
-      <c r="A37" s="41">
+    </row>
+    <row r="37" spans="1:27" ht="36.75">
+      <c r="A37" s="59">
         <v>89086</v>
       </c>
       <c r="B37" s="42">
@@ -3749,15 +3646,12 @@
       </c>
       <c r="Y37" s="51"/>
       <c r="Z37" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA37" s="42"/>
-      <c r="AB37" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="36.75">
-      <c r="A38" s="41">
+    </row>
+    <row r="38" spans="1:27" ht="36.75">
+      <c r="A38" s="59">
         <v>89086</v>
       </c>
       <c r="B38" s="42">
@@ -3827,15 +3721,12 @@
       </c>
       <c r="Y38" s="51"/>
       <c r="Z38" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA38" s="42"/>
-      <c r="AB38" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="36.75">
-      <c r="A39" s="41">
+    </row>
+    <row r="39" spans="1:27" ht="36.75">
+      <c r="A39" s="59">
         <v>89086</v>
       </c>
       <c r="B39" s="42">
@@ -3903,15 +3794,12 @@
       </c>
       <c r="Y39" s="51"/>
       <c r="Z39" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA39" s="42"/>
-      <c r="AB39" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="36.75">
-      <c r="A40" s="41">
+    </row>
+    <row r="40" spans="1:27" ht="36.75">
+      <c r="A40" s="59">
         <v>89087</v>
       </c>
       <c r="B40" s="42">
@@ -3981,15 +3869,12 @@
       </c>
       <c r="Y40" s="51"/>
       <c r="Z40" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA40" s="42"/>
-      <c r="AB40" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" ht="36.75">
-      <c r="A41" s="41">
+    </row>
+    <row r="41" spans="1:27" ht="36.75">
+      <c r="A41" s="59">
         <v>89087</v>
       </c>
       <c r="B41" s="42">
@@ -4059,15 +3944,12 @@
       </c>
       <c r="Y41" s="51"/>
       <c r="Z41" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA41" s="42"/>
-      <c r="AB41" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="36.75">
-      <c r="A42" s="41">
+    </row>
+    <row r="42" spans="1:27" ht="36.75">
+      <c r="A42" s="59">
         <v>89087</v>
       </c>
       <c r="B42" s="42">
@@ -4135,15 +4017,12 @@
       </c>
       <c r="Y42" s="51"/>
       <c r="Z42" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA42" s="42"/>
-      <c r="AB42" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" ht="36.75">
-      <c r="A43" s="41">
+    </row>
+    <row r="43" spans="1:27" ht="36.75">
+      <c r="A43" s="59">
         <v>89088</v>
       </c>
       <c r="B43" s="42">
@@ -4213,15 +4092,12 @@
       </c>
       <c r="Y43" s="51"/>
       <c r="Z43" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA43" s="42"/>
-      <c r="AB43" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" ht="36.75">
-      <c r="A44" s="41">
+    </row>
+    <row r="44" spans="1:27" ht="36.75">
+      <c r="A44" s="59">
         <v>89088</v>
       </c>
       <c r="B44" s="42">
@@ -4291,15 +4167,12 @@
       </c>
       <c r="Y44" s="51"/>
       <c r="Z44" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA44" s="42"/>
-      <c r="AB44" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="36.75">
-      <c r="A45" s="41">
+    </row>
+    <row r="45" spans="1:27" ht="36.75">
+      <c r="A45" s="59">
         <v>89088</v>
       </c>
       <c r="B45" s="42">
@@ -4367,16 +4240,13 @@
       </c>
       <c r="Y45" s="51"/>
       <c r="Z45" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA45" s="42"/>
-      <c r="AB45" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="36.75">
-      <c r="A46" s="41">
-        <v>89089</v>
+    </row>
+    <row r="46" spans="1:27" ht="36.75">
+      <c r="A46" s="59">
+        <v>8989</v>
       </c>
       <c r="B46" s="42">
         <v>1</v>
@@ -4445,16 +4315,13 @@
       </c>
       <c r="Y46" s="51"/>
       <c r="Z46" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA46" s="42"/>
-      <c r="AB46" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="36.75">
-      <c r="A47" s="41">
-        <v>89089</v>
+    </row>
+    <row r="47" spans="1:27" ht="36.75">
+      <c r="A47" s="59">
+        <v>8989</v>
       </c>
       <c r="B47" s="42">
         <v>2</v>
@@ -4523,16 +4390,13 @@
       </c>
       <c r="Y47" s="51"/>
       <c r="Z47" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA47" s="42"/>
-      <c r="AB47" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="36.75">
-      <c r="A48" s="41">
-        <v>89089</v>
+    </row>
+    <row r="48" spans="1:27" ht="36.75">
+      <c r="A48" s="59">
+        <v>8989</v>
       </c>
       <c r="B48" s="42">
         <v>3</v>
@@ -4599,15 +4463,12 @@
       </c>
       <c r="Y48" s="51"/>
       <c r="Z48" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA48" s="42"/>
-      <c r="AB48" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="36.75">
-      <c r="A49" s="41">
+    </row>
+    <row r="49" spans="1:27" ht="36.75">
+      <c r="A49" s="59">
         <v>89090</v>
       </c>
       <c r="B49" s="42">
@@ -4677,15 +4538,12 @@
       </c>
       <c r="Y49" s="51"/>
       <c r="Z49" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA49" s="42"/>
-      <c r="AB49" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="36.75">
-      <c r="A50" s="41">
+    </row>
+    <row r="50" spans="1:27" ht="36.75">
+      <c r="A50" s="59">
         <v>89090</v>
       </c>
       <c r="B50" s="42">
@@ -4755,15 +4613,12 @@
       </c>
       <c r="Y50" s="51"/>
       <c r="Z50" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA50" s="42"/>
-      <c r="AB50" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="36.75">
-      <c r="A51" s="41">
+    </row>
+    <row r="51" spans="1:27" ht="36.75">
+      <c r="A51" s="59">
         <v>89090</v>
       </c>
       <c r="B51" s="42">
@@ -4831,15 +4686,12 @@
       </c>
       <c r="Y51" s="51"/>
       <c r="Z51" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA51" s="42"/>
-      <c r="AB51" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="36.75">
-      <c r="A52" s="41">
+    </row>
+    <row r="52" spans="1:27" ht="36.75">
+      <c r="A52" s="59">
         <v>89091</v>
       </c>
       <c r="B52" s="42">
@@ -4909,15 +4761,12 @@
       </c>
       <c r="Y52" s="51"/>
       <c r="Z52" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA52" s="42"/>
-      <c r="AB52" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="36.75">
-      <c r="A53" s="41">
+    </row>
+    <row r="53" spans="1:27" ht="36.75">
+      <c r="A53" s="59">
         <v>89091</v>
       </c>
       <c r="B53" s="42">
@@ -4987,15 +4836,12 @@
       </c>
       <c r="Y53" s="51"/>
       <c r="Z53" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA53" s="42"/>
-      <c r="AB53" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="36.75">
-      <c r="A54" s="41">
+    </row>
+    <row r="54" spans="1:27" ht="36.75">
+      <c r="A54" s="59">
         <v>89091</v>
       </c>
       <c r="B54" s="42">
@@ -5063,15 +4909,12 @@
       </c>
       <c r="Y54" s="51"/>
       <c r="Z54" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA54" s="42"/>
-      <c r="AB54" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="36.75">
-      <c r="A55" s="41">
+    </row>
+    <row r="55" spans="1:27" ht="36.75">
+      <c r="A55" s="59">
         <v>89092</v>
       </c>
       <c r="B55" s="42">
@@ -5141,15 +4984,12 @@
       </c>
       <c r="Y55" s="51"/>
       <c r="Z55" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA55" s="42"/>
-      <c r="AB55" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="36.75">
-      <c r="A56" s="41">
+    </row>
+    <row r="56" spans="1:27" ht="36.75">
+      <c r="A56" s="59">
         <v>89092</v>
       </c>
       <c r="B56" s="42">
@@ -5219,15 +5059,12 @@
       </c>
       <c r="Y56" s="51"/>
       <c r="Z56" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA56" s="42"/>
-      <c r="AB56" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="36.75">
-      <c r="A57" s="41">
+    </row>
+    <row r="57" spans="1:27" ht="36.75">
+      <c r="A57" s="59">
         <v>89092</v>
       </c>
       <c r="B57" s="42">
@@ -5295,15 +5132,12 @@
       </c>
       <c r="Y57" s="51"/>
       <c r="Z57" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA57" s="42"/>
-      <c r="AB57" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="36.75">
-      <c r="A58" s="41">
+    </row>
+    <row r="58" spans="1:27" ht="36.75">
+      <c r="A58" s="59">
         <v>89093</v>
       </c>
       <c r="B58" s="42">
@@ -5373,15 +5207,12 @@
       </c>
       <c r="Y58" s="51"/>
       <c r="Z58" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA58" s="42"/>
-      <c r="AB58" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="36.75">
-      <c r="A59" s="41">
+    </row>
+    <row r="59" spans="1:27" ht="36.75">
+      <c r="A59" s="59">
         <v>89093</v>
       </c>
       <c r="B59" s="42">
@@ -5451,15 +5282,12 @@
       </c>
       <c r="Y59" s="51"/>
       <c r="Z59" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA59" s="42"/>
-      <c r="AB59" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="36.75">
-      <c r="A60" s="41">
+    </row>
+    <row r="60" spans="1:27" ht="36.75">
+      <c r="A60" s="59">
         <v>89093</v>
       </c>
       <c r="B60" s="42">
@@ -5527,15 +5355,12 @@
       </c>
       <c r="Y60" s="51"/>
       <c r="Z60" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA60" s="42"/>
-      <c r="AB60" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="36.75">
-      <c r="A61" s="41">
+    </row>
+    <row r="61" spans="1:27" ht="36.75">
+      <c r="A61" s="59">
         <v>89094</v>
       </c>
       <c r="B61" s="42">
@@ -5605,15 +5430,12 @@
       </c>
       <c r="Y61" s="51"/>
       <c r="Z61" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA61" s="42"/>
-      <c r="AB61" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="36.75">
-      <c r="A62" s="41">
+    </row>
+    <row r="62" spans="1:27" ht="36.75">
+      <c r="A62" s="59">
         <v>89094</v>
       </c>
       <c r="B62" s="42">
@@ -5683,15 +5505,12 @@
       </c>
       <c r="Y62" s="51"/>
       <c r="Z62" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA62" s="42"/>
-      <c r="AB62" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" ht="36.75">
-      <c r="A63" s="41">
+    </row>
+    <row r="63" spans="1:27" ht="36.75">
+      <c r="A63" s="59">
         <v>89094</v>
       </c>
       <c r="B63" s="42">
@@ -5759,15 +5578,12 @@
       </c>
       <c r="Y63" s="51"/>
       <c r="Z63" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA63" s="42"/>
-      <c r="AB63" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="36.75">
-      <c r="A64" s="41">
+    </row>
+    <row r="64" spans="1:27" ht="36.75">
+      <c r="A64" s="59">
         <v>89095</v>
       </c>
       <c r="B64" s="42">
@@ -5837,15 +5653,12 @@
       </c>
       <c r="Y64" s="51"/>
       <c r="Z64" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA64" s="42"/>
-      <c r="AB64" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" ht="36.75">
-      <c r="A65" s="41">
+    </row>
+    <row r="65" spans="1:27" ht="36.75">
+      <c r="A65" s="59">
         <v>89095</v>
       </c>
       <c r="B65" s="42">
@@ -5915,15 +5728,12 @@
       </c>
       <c r="Y65" s="51"/>
       <c r="Z65" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA65" s="42"/>
-      <c r="AB65" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" ht="36.75">
-      <c r="A66" s="41">
+    </row>
+    <row r="66" spans="1:27" ht="36.75">
+      <c r="A66" s="59">
         <v>89095</v>
       </c>
       <c r="B66" s="42">
@@ -5991,15 +5801,12 @@
       </c>
       <c r="Y66" s="51"/>
       <c r="Z66" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA66" s="42"/>
-      <c r="AB66" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" ht="36.75">
-      <c r="A67" s="41">
+    </row>
+    <row r="67" spans="1:27" ht="36.75">
+      <c r="A67" s="59">
         <v>89096</v>
       </c>
       <c r="B67" s="42">
@@ -6069,15 +5876,12 @@
       </c>
       <c r="Y67" s="51"/>
       <c r="Z67" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA67" s="42"/>
-      <c r="AB67" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" ht="36.75">
-      <c r="A68" s="41">
+    </row>
+    <row r="68" spans="1:27" ht="36.75">
+      <c r="A68" s="59">
         <v>89096</v>
       </c>
       <c r="B68" s="42">
@@ -6147,15 +5951,12 @@
       </c>
       <c r="Y68" s="51"/>
       <c r="Z68" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA68" s="42"/>
-      <c r="AB68" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" ht="36.75">
-      <c r="A69" s="41">
+    </row>
+    <row r="69" spans="1:27" ht="36.75">
+      <c r="A69" s="59">
         <v>89096</v>
       </c>
       <c r="B69" s="42">
@@ -6223,15 +6024,12 @@
       </c>
       <c r="Y69" s="51"/>
       <c r="Z69" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA69" s="42"/>
-      <c r="AB69" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" ht="36.75">
-      <c r="A70" s="41">
+    </row>
+    <row r="70" spans="1:27" ht="36.75">
+      <c r="A70" s="59">
         <v>89097</v>
       </c>
       <c r="B70" s="42">
@@ -6301,15 +6099,12 @@
       </c>
       <c r="Y70" s="51"/>
       <c r="Z70" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA70" s="42"/>
-      <c r="AB70" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" ht="36.75">
-      <c r="A71" s="41">
+    </row>
+    <row r="71" spans="1:27" ht="36.75">
+      <c r="A71" s="59">
         <v>89097</v>
       </c>
       <c r="B71" s="42">
@@ -6379,15 +6174,12 @@
       </c>
       <c r="Y71" s="51"/>
       <c r="Z71" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA71" s="42"/>
-      <c r="AB71" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" ht="36.75">
-      <c r="A72" s="41">
+    </row>
+    <row r="72" spans="1:27" ht="36.75">
+      <c r="A72" s="59">
         <v>89097</v>
       </c>
       <c r="B72" s="42">
@@ -6455,15 +6247,12 @@
       </c>
       <c r="Y72" s="51"/>
       <c r="Z72" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA72" s="42"/>
-      <c r="AB72" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" ht="36.75">
-      <c r="A73" s="41">
+    </row>
+    <row r="73" spans="1:27" ht="36.75">
+      <c r="A73" s="59">
         <v>89078</v>
       </c>
       <c r="B73" s="42">
@@ -6533,15 +6322,12 @@
       </c>
       <c r="Y73" s="51"/>
       <c r="Z73" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA73" s="42"/>
-      <c r="AB73" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="36.75">
-      <c r="A74" s="41">
+    </row>
+    <row r="74" spans="1:27" ht="36.75">
+      <c r="A74" s="59">
         <v>89078</v>
       </c>
       <c r="B74" s="42">
@@ -6611,15 +6397,12 @@
       </c>
       <c r="Y74" s="51"/>
       <c r="Z74" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA74" s="42"/>
-      <c r="AB74" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" ht="36.75">
-      <c r="A75" s="41">
+    </row>
+    <row r="75" spans="1:27" ht="36.75">
+      <c r="A75" s="59">
         <v>89078</v>
       </c>
       <c r="B75" s="42">
@@ -6687,15 +6470,12 @@
       </c>
       <c r="Y75" s="51"/>
       <c r="Z75" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA75" s="42"/>
-      <c r="AB75" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" ht="36.75">
-      <c r="A76" s="41">
+    </row>
+    <row r="76" spans="1:27" ht="36.75">
+      <c r="A76" s="59">
         <v>89078</v>
       </c>
       <c r="B76" s="42">
@@ -6765,15 +6545,12 @@
       </c>
       <c r="Y76" s="51"/>
       <c r="Z76" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA76" s="42"/>
-      <c r="AB76" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" ht="36.75">
-      <c r="A77" s="41">
+    </row>
+    <row r="77" spans="1:27" ht="36.75">
+      <c r="A77" s="59">
         <v>89078</v>
       </c>
       <c r="B77" s="42">
@@ -6843,15 +6620,12 @@
       </c>
       <c r="Y77" s="51"/>
       <c r="Z77" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA77" s="42"/>
-      <c r="AB77" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" ht="36.75">
-      <c r="A78" s="41">
+    </row>
+    <row r="78" spans="1:27" ht="36.75">
+      <c r="A78" s="59">
         <v>89078</v>
       </c>
       <c r="B78" s="42">
@@ -6919,15 +6693,12 @@
       </c>
       <c r="Y78" s="51"/>
       <c r="Z78" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA78" s="42"/>
-      <c r="AB78" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="36.75">
-      <c r="A79" s="41">
+    </row>
+    <row r="79" spans="1:27" ht="36.75">
+      <c r="A79" s="59">
         <v>89078</v>
       </c>
       <c r="B79" s="42">
@@ -6997,15 +6768,12 @@
       </c>
       <c r="Y79" s="51"/>
       <c r="Z79" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA79" s="42"/>
-      <c r="AB79" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" ht="36.75">
-      <c r="A80" s="41">
+    </row>
+    <row r="80" spans="1:27" ht="36.75">
+      <c r="A80" s="59">
         <v>89078</v>
       </c>
       <c r="B80" s="42">
@@ -7075,15 +6843,12 @@
       </c>
       <c r="Y80" s="51"/>
       <c r="Z80" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA80" s="42"/>
-      <c r="AB80" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="36.75">
-      <c r="A81" s="41">
+    </row>
+    <row r="81" spans="1:27" ht="36.75">
+      <c r="A81" s="59">
         <v>89078</v>
       </c>
       <c r="B81" s="42">
@@ -7151,15 +6916,12 @@
       </c>
       <c r="Y81" s="51"/>
       <c r="Z81" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA81" s="42"/>
-      <c r="AB81" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="36.75">
-      <c r="A82" s="41">
+    </row>
+    <row r="82" spans="1:27" ht="36.75">
+      <c r="A82" s="59">
         <v>89078</v>
       </c>
       <c r="B82" s="42">
@@ -7229,15 +6991,12 @@
       </c>
       <c r="Y82" s="51"/>
       <c r="Z82" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA82" s="42"/>
-      <c r="AB82" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="36.75">
-      <c r="A83" s="41">
+    </row>
+    <row r="83" spans="1:27" ht="36.75">
+      <c r="A83" s="59">
         <v>89078</v>
       </c>
       <c r="B83" s="42">
@@ -7307,15 +7066,12 @@
       </c>
       <c r="Y83" s="51"/>
       <c r="Z83" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA83" s="42"/>
-      <c r="AB83" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="36.75">
-      <c r="A84" s="41">
+    </row>
+    <row r="84" spans="1:27" ht="36.75">
+      <c r="A84" s="59">
         <v>89078</v>
       </c>
       <c r="B84" s="42">
@@ -7383,15 +7139,12 @@
       </c>
       <c r="Y84" s="51"/>
       <c r="Z84" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA84" s="42"/>
-      <c r="AB84" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" ht="36.75">
-      <c r="A85" s="41">
+    </row>
+    <row r="85" spans="1:27" ht="36.75">
+      <c r="A85" s="59">
         <v>89078</v>
       </c>
       <c r="B85" s="42">
@@ -7461,15 +7214,12 @@
       </c>
       <c r="Y85" s="51"/>
       <c r="Z85" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA85" s="42"/>
-      <c r="AB85" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="36.75">
-      <c r="A86" s="41">
+    </row>
+    <row r="86" spans="1:27" ht="36.75">
+      <c r="A86" s="59">
         <v>89078</v>
       </c>
       <c r="B86" s="42">
@@ -7539,15 +7289,12 @@
       </c>
       <c r="Y86" s="51"/>
       <c r="Z86" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA86" s="42"/>
-      <c r="AB86" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="36.75">
-      <c r="A87" s="41">
+    </row>
+    <row r="87" spans="1:27" ht="36.75">
+      <c r="A87" s="59">
         <v>89078</v>
       </c>
       <c r="B87" s="42">
@@ -7615,15 +7362,12 @@
       </c>
       <c r="Y87" s="51"/>
       <c r="Z87" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA87" s="42"/>
-      <c r="AB87" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="36.75">
-      <c r="A88" s="41">
+    </row>
+    <row r="88" spans="1:27" ht="36.75">
+      <c r="A88" s="59">
         <v>89078</v>
       </c>
       <c r="B88" s="42">
@@ -7693,15 +7437,12 @@
       </c>
       <c r="Y88" s="51"/>
       <c r="Z88" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA88" s="42"/>
-      <c r="AB88" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" ht="36.75">
-      <c r="A89" s="41">
+    </row>
+    <row r="89" spans="1:27" ht="36.75">
+      <c r="A89" s="59">
         <v>89078</v>
       </c>
       <c r="B89" s="42">
@@ -7771,15 +7512,12 @@
       </c>
       <c r="Y89" s="51"/>
       <c r="Z89" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA89" s="42"/>
-      <c r="AB89" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="36.75">
-      <c r="A90" s="41">
+    </row>
+    <row r="90" spans="1:27" ht="36.75">
+      <c r="A90" s="59">
         <v>89078</v>
       </c>
       <c r="B90" s="42">
@@ -7847,15 +7585,12 @@
       </c>
       <c r="Y90" s="51"/>
       <c r="Z90" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA90" s="42"/>
-      <c r="AB90" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" ht="36.75">
-      <c r="A91" s="41">
+    </row>
+    <row r="91" spans="1:27" ht="36.75">
+      <c r="A91" s="59">
         <v>89078</v>
       </c>
       <c r="B91" s="42">
@@ -7925,15 +7660,12 @@
       </c>
       <c r="Y91" s="51"/>
       <c r="Z91" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA91" s="42"/>
-      <c r="AB91" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="36.75">
-      <c r="A92" s="41">
+    </row>
+    <row r="92" spans="1:27" ht="36.75">
+      <c r="A92" s="59">
         <v>89078</v>
       </c>
       <c r="B92" s="42">
@@ -8003,15 +7735,12 @@
       </c>
       <c r="Y92" s="51"/>
       <c r="Z92" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA92" s="42"/>
-      <c r="AB92" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="36.75">
-      <c r="A93" s="41">
+    </row>
+    <row r="93" spans="1:27" ht="36.75">
+      <c r="A93" s="59">
         <v>89078</v>
       </c>
       <c r="B93" s="42">
@@ -8079,15 +7808,12 @@
       </c>
       <c r="Y93" s="51"/>
       <c r="Z93" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA93" s="42"/>
-      <c r="AB93" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" ht="36.75">
-      <c r="A94" s="41">
+    </row>
+    <row r="94" spans="1:27" ht="36.75">
+      <c r="A94" s="59">
         <v>89078</v>
       </c>
       <c r="B94" s="42">
@@ -8157,15 +7883,12 @@
       </c>
       <c r="Y94" s="51"/>
       <c r="Z94" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA94" s="42"/>
-      <c r="AB94" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" ht="36.75">
-      <c r="A95" s="41">
+    </row>
+    <row r="95" spans="1:27" ht="36.75">
+      <c r="A95" s="59">
         <v>89078</v>
       </c>
       <c r="B95" s="42">
@@ -8235,15 +7958,12 @@
       </c>
       <c r="Y95" s="51"/>
       <c r="Z95" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA95" s="42"/>
-      <c r="AB95" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" ht="36.75">
-      <c r="A96" s="41">
+    </row>
+    <row r="96" spans="1:27" ht="36.75">
+      <c r="A96" s="59">
         <v>89078</v>
       </c>
       <c r="B96" s="42">
@@ -8311,15 +8031,12 @@
       </c>
       <c r="Y96" s="51"/>
       <c r="Z96" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA96" s="42"/>
-      <c r="AB96" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="36.75">
-      <c r="A97" s="41">
+    </row>
+    <row r="97" spans="1:27" ht="36.75">
+      <c r="A97" s="59">
         <v>89078</v>
       </c>
       <c r="B97" s="42">
@@ -8389,15 +8106,12 @@
       </c>
       <c r="Y97" s="51"/>
       <c r="Z97" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA97" s="42"/>
-      <c r="AB97" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="36.75">
-      <c r="A98" s="41">
+    </row>
+    <row r="98" spans="1:27" ht="36.75">
+      <c r="A98" s="59">
         <v>89078</v>
       </c>
       <c r="B98" s="42">
@@ -8467,15 +8181,12 @@
       </c>
       <c r="Y98" s="51"/>
       <c r="Z98" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA98" s="42"/>
-      <c r="AB98" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="36.75">
-      <c r="A99" s="41">
+    </row>
+    <row r="99" spans="1:27" ht="36.75">
+      <c r="A99" s="59">
         <v>89078</v>
       </c>
       <c r="B99" s="42">
@@ -8543,15 +8254,12 @@
       </c>
       <c r="Y99" s="51"/>
       <c r="Z99" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA99" s="42"/>
-      <c r="AB99" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="36.75">
-      <c r="A100" s="41">
+    </row>
+    <row r="100" spans="1:27" ht="36.75">
+      <c r="A100" s="59">
         <v>89078</v>
       </c>
       <c r="B100" s="42">
@@ -8621,15 +8329,12 @@
       </c>
       <c r="Y100" s="51"/>
       <c r="Z100" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA100" s="42"/>
-      <c r="AB100" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="36.75">
-      <c r="A101" s="41">
+    </row>
+    <row r="101" spans="1:27" ht="36.75">
+      <c r="A101" s="59">
         <v>89078</v>
       </c>
       <c r="B101" s="42">
@@ -8699,15 +8404,12 @@
       </c>
       <c r="Y101" s="51"/>
       <c r="Z101" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA101" s="42"/>
-      <c r="AB101" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" ht="36.75">
-      <c r="A102" s="41">
+    </row>
+    <row r="102" spans="1:27" ht="36.75">
+      <c r="A102" s="59">
         <v>89078</v>
       </c>
       <c r="B102" s="42">
@@ -8775,15 +8477,12 @@
       </c>
       <c r="Y102" s="51"/>
       <c r="Z102" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA102" s="42"/>
-      <c r="AB102" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="36.75">
-      <c r="A103" s="41">
+    </row>
+    <row r="103" spans="1:27" ht="36.75">
+      <c r="A103" s="59">
         <v>89078</v>
       </c>
       <c r="B103" s="42">
@@ -8853,15 +8552,12 @@
       </c>
       <c r="Y103" s="51"/>
       <c r="Z103" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA103" s="42"/>
-      <c r="AB103" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="36.75">
-      <c r="A104" s="41">
+    </row>
+    <row r="104" spans="1:27" ht="36.75">
+      <c r="A104" s="59">
         <v>89078</v>
       </c>
       <c r="B104" s="42">
@@ -8931,15 +8627,12 @@
       </c>
       <c r="Y104" s="51"/>
       <c r="Z104" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA104" s="42"/>
-      <c r="AB104" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="36.75">
-      <c r="A105" s="41">
+    </row>
+    <row r="105" spans="1:27" ht="36.75">
+      <c r="A105" s="59">
         <v>89078</v>
       </c>
       <c r="B105" s="42">
@@ -9007,15 +8700,12 @@
       </c>
       <c r="Y105" s="51"/>
       <c r="Z105" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA105" s="42"/>
-      <c r="AB105" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="36.75">
-      <c r="A106" s="41">
+    </row>
+    <row r="106" spans="1:27" ht="36.75">
+      <c r="A106" s="59">
         <v>89078</v>
       </c>
       <c r="B106" s="42">
@@ -9085,15 +8775,12 @@
       </c>
       <c r="Y106" s="51"/>
       <c r="Z106" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA106" s="42"/>
-      <c r="AB106" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="36.75">
-      <c r="A107" s="41">
+    </row>
+    <row r="107" spans="1:27" ht="36.75">
+      <c r="A107" s="59">
         <v>89078</v>
       </c>
       <c r="B107" s="42">
@@ -9163,15 +8850,12 @@
       </c>
       <c r="Y107" s="51"/>
       <c r="Z107" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA107" s="42"/>
-      <c r="AB107" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="36.75">
-      <c r="A108" s="41">
+    </row>
+    <row r="108" spans="1:27" ht="36.75">
+      <c r="A108" s="59">
         <v>89078</v>
       </c>
       <c r="B108" s="42">
@@ -9239,15 +8923,12 @@
       </c>
       <c r="Y108" s="51"/>
       <c r="Z108" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA108" s="42"/>
-      <c r="AB108" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="36.75">
-      <c r="A109" s="41">
+    </row>
+    <row r="109" spans="1:27" ht="36.75">
+      <c r="A109" s="59">
         <v>89078</v>
       </c>
       <c r="B109" s="42">
@@ -9317,15 +8998,12 @@
       </c>
       <c r="Y109" s="51"/>
       <c r="Z109" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA109" s="42"/>
-      <c r="AB109" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="36.75">
-      <c r="A110" s="41">
+    </row>
+    <row r="110" spans="1:27" ht="36.75">
+      <c r="A110" s="59">
         <v>89078</v>
       </c>
       <c r="B110" s="42">
@@ -9395,15 +9073,12 @@
       </c>
       <c r="Y110" s="51"/>
       <c r="Z110" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA110" s="42"/>
-      <c r="AB110" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="36.75">
-      <c r="A111" s="41"/>
+    </row>
+    <row r="111" spans="1:27" ht="36.75">
+      <c r="A111" s="59"/>
       <c r="B111" s="42">
         <v>3</v>
       </c>
@@ -9469,15 +9144,12 @@
       </c>
       <c r="Y111" s="51"/>
       <c r="Z111" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA111" s="42"/>
-      <c r="AB111" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="36.75">
-      <c r="A112" s="41">
+    </row>
+    <row r="112" spans="1:27" ht="36.75">
+      <c r="A112" s="59">
         <v>89078</v>
       </c>
       <c r="B112" s="42">
@@ -9547,15 +9219,12 @@
       </c>
       <c r="Y112" s="51"/>
       <c r="Z112" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA112" s="42"/>
-      <c r="AB112" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="36.75">
-      <c r="A113" s="41"/>
+    </row>
+    <row r="113" spans="1:27" ht="36.75">
+      <c r="A113" s="59"/>
       <c r="B113" s="42">
         <v>2</v>
       </c>
@@ -9623,15 +9292,12 @@
       </c>
       <c r="Y113" s="51"/>
       <c r="Z113" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA113" s="42"/>
-      <c r="AB113" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="36.75">
-      <c r="A114" s="41"/>
+    </row>
+    <row r="114" spans="1:27" ht="36.75">
+      <c r="A114" s="59"/>
       <c r="B114" s="42">
         <v>3</v>
       </c>
@@ -9697,12 +9363,9 @@
       </c>
       <c r="Y114" s="51"/>
       <c r="Z114" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA114" s="42"/>
-      <c r="AB114" s="42" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
